--- a/src/main/resources/test_data/test_data_excel.xlsx
+++ b/src/main/resources/test_data/test_data_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91812\IdeaProjects\Selenium_Maven\SelTest1\src\main\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91812\git\SeleniumFrameWork\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B514474A-7AB5-4350-8E77-1CF8109FA705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA038CDF-B64A-4D32-BF7E-0898C866743C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>a2</t>
   </si>
@@ -60,166 +60,43 @@
     <t>a8</t>
   </si>
   <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
     <t>b6</t>
   </si>
   <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>d6</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-  <si>
     <t>b7</t>
   </si>
   <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>d7</t>
-  </si>
-  <si>
-    <t>e7</t>
-  </si>
-  <si>
     <t>b8</t>
   </si>
   <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>d8</t>
-  </si>
-  <si>
-    <t>e8</t>
-  </si>
-  <si>
     <t>a9</t>
   </si>
   <si>
     <t>b9</t>
   </si>
   <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>d9</t>
-  </si>
-  <si>
-    <t>e9</t>
-  </si>
-  <si>
     <t>a10</t>
   </si>
   <si>
     <t>b10</t>
   </si>
   <si>
-    <t>c10</t>
-  </si>
-  <si>
-    <t>d10</t>
-  </si>
-  <si>
-    <t>e10</t>
-  </si>
-  <si>
     <t>a11</t>
   </si>
   <si>
     <t>b11</t>
   </si>
   <si>
-    <t>c11</t>
-  </si>
-  <si>
-    <t>d11</t>
-  </si>
-  <si>
-    <t>e11</t>
-  </si>
-  <si>
     <t>a12</t>
   </si>
   <si>
     <t>b12</t>
   </si>
   <si>
-    <t>c12</t>
-  </si>
-  <si>
-    <t>d12</t>
-  </si>
-  <si>
-    <t>e12</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
-    <t>b13</t>
-  </si>
-  <si>
-    <t>c13</t>
-  </si>
-  <si>
-    <t>d13</t>
-  </si>
-  <si>
-    <t>e13</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Username2</t>
-  </si>
-  <si>
-    <t>Username3</t>
-  </si>
-  <si>
-    <t>Username4</t>
-  </si>
-  <si>
-    <t>Username5</t>
   </si>
 </sst>
 </file>
@@ -543,233 +420,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
